--- a/demos/regression-slopes.xlsx
+++ b/demos/regression-slopes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\training-datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\training-assets\demos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{BE164A73-A3C2-43E4-A011-3C77989AF69C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2D4CF6-2D40-4383-9324-3DFA70AA030E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="13373" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
     <sheet name="regression-slopes" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>X</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Y2</t>
+  </si>
+  <si>
+    <t>Y3</t>
   </si>
 </sst>
 </file>
@@ -444,304 +447,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>12.5</c:v>
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.8</c:v>
+                  <c:v>12.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>12.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.8</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>12.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>11.2</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>12.1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.4</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="82">
                   <c:v>12.7</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="83">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>11.6</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>10.8</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.6</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.4</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.6999999999999993</c:v>
+                  <c:v>9.1</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>12.2</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>12.9</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="97">
-                  <c:v>8.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.1</c:v>
-                </c:pt>
                 <c:pt idx="99">
-                  <c:v>12.7</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -753,304 +756,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>22.864999999999998</c:v>
+                  <c:v>14.832380000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.159739999999999</c:v>
+                  <c:v>16.072600000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.773119999999999</c:v>
+                  <c:v>22.115500000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.75882</c:v>
+                  <c:v>13.320460000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.2895</c:v>
+                  <c:v>18.042999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.891</c:v>
+                  <c:v>21.420549999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.7408</c:v>
+                  <c:v>13.5588</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.07676</c:v>
+                  <c:v>18.469519999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.614899999999999</c:v>
+                  <c:v>21.96594</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.488799999999998</c:v>
+                  <c:v>14.80688</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.078849999999999</c:v>
+                  <c:v>14.283659999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.991479999999999</c:v>
+                  <c:v>22.4224</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.562159999999999</c:v>
+                  <c:v>15.65456</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.334849999999999</c:v>
+                  <c:v>18.883940000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.621040000000001</c:v>
+                  <c:v>19.854019999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21.621609999999997</c:v>
+                  <c:v>23.76559</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.9552</c:v>
+                  <c:v>20.517760000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22.006799999999998</c:v>
+                  <c:v>22.66039</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.532959999999999</c:v>
+                  <c:v>13.45984</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18.121960000000001</c:v>
+                  <c:v>21.531100000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18.839939999999999</c:v>
+                  <c:v>13.7324</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12.59075</c:v>
+                  <c:v>22.331800000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12.32056</c:v>
+                  <c:v>19.880420000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>22.09637</c:v>
+                  <c:v>18.91968</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.333080000000001</c:v>
+                  <c:v>15.852</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19.557949999999998</c:v>
+                  <c:v>19.20438</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11.74131</c:v>
+                  <c:v>13.52539</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17.185040000000001</c:v>
+                  <c:v>13.66048</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17.423680000000001</c:v>
+                  <c:v>13.27453</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15.928930000000001</c:v>
+                  <c:v>16.619799999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16.626560000000001</c:v>
+                  <c:v>18.865600000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>22.7608</c:v>
+                  <c:v>14.05152</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>13.59346</c:v>
+                  <c:v>19.819600000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>13.6576</c:v>
+                  <c:v>13.39264</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>18.141300000000001</c:v>
+                  <c:v>19.366720000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>17.86356</c:v>
+                  <c:v>21.587499999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>18.582280000000001</c:v>
+                  <c:v>13.09952</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>18.92624</c:v>
+                  <c:v>15.525659999999998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>14.461079999999999</c:v>
+                  <c:v>19.515699999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>15.930240000000001</c:v>
+                  <c:v>21.620919999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>16.1876</c:v>
+                  <c:v>18.608599999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>13.61881</c:v>
+                  <c:v>11.80217</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>13.67887</c:v>
+                  <c:v>17.987200000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>11.462019999999999</c:v>
+                  <c:v>11.802519999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>14.271789999999999</c:v>
+                  <c:v>12.27079</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22.388849999999998</c:v>
+                  <c:v>14.96752</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>11.532249999999999</c:v>
+                  <c:v>11.9413</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>21.5654</c:v>
+                  <c:v>12.905470000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>16.913499999999999</c:v>
+                  <c:v>12.0823</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>10.9231</c:v>
+                  <c:v>15.519880000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>16.29599</c:v>
+                  <c:v>22.408520000000003</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>13.8256</c:v>
+                  <c:v>19.89376</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>11.374230000000001</c:v>
+                  <c:v>15.620200000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>22.545819999999999</c:v>
+                  <c:v>18.069900000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>20.514559999999999</c:v>
+                  <c:v>19.514800000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>14.4712</c:v>
+                  <c:v>12.12589</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>21.3399</c:v>
+                  <c:v>15.997</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>11.8568</c:v>
+                  <c:v>11.20783</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>10.9657</c:v>
+                  <c:v>19.898199999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>18.07348</c:v>
+                  <c:v>11.92318</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>18.619599999999998</c:v>
+                  <c:v>20.776400000000002</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>17.108720000000002</c:v>
+                  <c:v>20.393149999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>15.38944</c:v>
+                  <c:v>18.981879999999997</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>16.091799999999999</c:v>
+                  <c:v>13.28134</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>12.548259999999999</c:v>
+                  <c:v>21.347459999999998</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>21.916679999999999</c:v>
+                  <c:v>21.7453</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>20.106740000000002</c:v>
+                  <c:v>18.231200000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>11.39846</c:v>
+                  <c:v>11.035</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>12.94896</c:v>
+                  <c:v>13.973279999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>13.010200000000001</c:v>
+                  <c:v>17.3736</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>16.549900000000001</c:v>
+                  <c:v>11.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>11.566240000000001</c:v>
+                  <c:v>14.40437</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>12.922359999999999</c:v>
+                  <c:v>21.797499999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>13.41888</c:v>
+                  <c:v>22.271139999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>13.24704</c:v>
+                  <c:v>13.20912</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>20.486620000000002</c:v>
+                  <c:v>21.92596</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>14.010899999999999</c:v>
+                  <c:v>13.289770000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>22.953749999999999</c:v>
+                  <c:v>22.24342</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>20.656359999999999</c:v>
+                  <c:v>20.335000000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>17.82179</c:v>
+                  <c:v>16.515460000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>16.166399999999999</c:v>
+                  <c:v>15.01585</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>14.433759999999999</c:v>
+                  <c:v>21.94256</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>20.21743</c:v>
+                  <c:v>22.576809999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>21.543550000000003</c:v>
+                  <c:v>17.764479999999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>16.866379999999999</c:v>
+                  <c:v>21.28</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>13.468</c:v>
+                  <c:v>14.472999999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>23.474699999999999</c:v>
+                  <c:v>20.484099999999998</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>17.414740000000002</c:v>
+                  <c:v>15.2623</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>22.261060000000001</c:v>
+                  <c:v>12.178329999999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>20.258099999999999</c:v>
+                  <c:v>11.50285</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>11.904400000000001</c:v>
+                  <c:v>12.0586</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>11.56</c:v>
+                  <c:v>16.166440000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>12.247119999999999</c:v>
+                  <c:v>15.03088</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>18.703479999999999</c:v>
+                  <c:v>19.378459999999997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>22.131679999999999</c:v>
+                  <c:v>11.09131</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>22.687150000000003</c:v>
+                  <c:v>18.277280000000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>20.115000000000002</c:v>
+                  <c:v>11.75014</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>18.140640000000001</c:v>
+                  <c:v>13.1317</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>12.24091</c:v>
+                  <c:v>19.588999999999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>22.005310000000001</c:v>
+                  <c:v>14.257449999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1407,304 +1410,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>12.5</c:v>
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.8</c:v>
+                  <c:v>12.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>12.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.8</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>12.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>11.2</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>12.1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.4</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="82">
                   <c:v>12.7</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="83">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>11.6</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>10.8</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.6</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.4</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.6999999999999993</c:v>
+                  <c:v>9.1</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>12.2</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>12.9</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="97">
-                  <c:v>8.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.1</c:v>
-                </c:pt>
                 <c:pt idx="99">
-                  <c:v>12.7</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1759,16 +1762,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11.2</c:v>
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>6.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1932,6 +1935,897 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'regression-slopes'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'regression-slopes'!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'regression-slopes'!$F$2:$F$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>5.1676199999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9274000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.1155000000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6795400000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.956999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.4205500000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4412000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5304800000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.9659399999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1931199999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7163400000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.4223999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3454399999999991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1160599999999992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14597999999999978</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.7655899999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.51776000000000089</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.6603900000000014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.5401600000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.5311000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.2675999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.3318000000000012</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.11958000000000091</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0803199999999986</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.1480000000000006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.79561999999999955</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.4746100000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.3395200000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.7254699999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.3802000000000012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1344000000000012</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.94848</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.18039999999999878</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.6073599999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.63327999999999918</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.5875000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.9004799999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.4743400000000007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.48430000000000106</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.6209199999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.3914000000000009</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.1978299999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.0128000000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.1974800000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.7292100000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.0324800000000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.0587</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.0945299999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.9177</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.4801199999999994</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.4085200000000011</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.10624000000000144</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.3797999999999995</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9300999999999995</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.48520000000000074</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.8741099999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.0030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.7921700000000005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.10180000000000078</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.0768199999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.77640000000000065</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.39315000000000033</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0181200000000015</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.7186599999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.3474599999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1.7453000000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.7688000000000006</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.9649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.0267200000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.6264000000000003</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.9439999999999991</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.5956299999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-1.7974999999999994</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-2.271139999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.7908799999999996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1.9259599999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.7102300000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-2.2434200000000004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.33499999999999908</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.48454</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.9841500000000005</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-1.9425600000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-2.5768099999999983</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.2355199999999993</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-1.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.5270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.48409999999999975</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.7376999999999994</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.8216700000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.4971499999999995</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.9413999999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.8335600000000003</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.9691200000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.62154000000000131</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.90869</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.7227199999999989</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.24986</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.8682999999999996</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.41099999999999959</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.7425500000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BFE4-4A37-A695-FB6FEA303BCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1633602000"/>
+        <c:axId val="214721168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1633602000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214721168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="214721168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1633602000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2012,6 +2906,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2529,6 +3463,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3054,8 +4504,8 @@
       <xdr:rowOff>112183</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>620182</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2962</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>124883</xdr:rowOff>
     </xdr:to>
@@ -3162,6 +4612,42 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D23C7E-A6F3-449E-93D1-56FBDA9B1F73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3464,19 +4950,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A21CF2-F045-4933-8F09-4E42461A7DCE}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.64453125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3492,2105 +4978,2508 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <f ca="1">1+(RANDBETWEEN(-300,300)/10000)</f>
-        <v>1.0291999999999999</v>
+        <v>0.98619999999999997</v>
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(10,130)/10</f>
-        <v>12.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D2">
-        <f ca="1">10+(1*(B2*C2))</f>
-        <v>22.864999999999998</v>
+        <f ca="1">10+(1*($B2*$C2))</f>
+        <v>14.832380000000001</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(10,130)/10</f>
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F2">
+        <f ca="1">10+(-1*($B2*$C2))</f>
+        <v>5.1676199999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" ca="1" si="0">1+(RANDBETWEEN(-800,800)/10000)</f>
-        <v>1.0666</v>
+        <f ca="1">1+(RANDBETWEEN(-800,800)/10000)</f>
+        <v>1.0121</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" ca="1" si="1">RANDBETWEEN(10,130)/10</f>
-        <v>3.9</v>
+        <f t="shared" ref="C3:C66" ca="1" si="0">RANDBETWEEN(10,130)/10</f>
+        <v>6</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" ca="1" si="2">10+(1*(B3*C3))</f>
-        <v>14.159739999999999</v>
+        <f ca="1">10+(1*(B3*C3))</f>
+        <v>16.072600000000001</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" ca="1" si="3">RANDBETWEEN(10,130)/10</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ref="E3:E66" ca="1" si="1">RANDBETWEEN(10,130)/10</f>
+        <v>5.2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" ca="1" si="2">10+(-1*($B3*$C3))</f>
+        <v>3.9274000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <f t="shared" ref="B3:B66" ca="1" si="3">1+(RANDBETWEEN(-800,800)/10000)</f>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99790000000000001</v>
-      </c>
-      <c r="C4">
+        <v>12.3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D3:D66" ca="1" si="4">10+(1*(B4*C4))</f>
+        <v>22.115500000000001</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.1155000000000008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0062</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="4"/>
+        <v>13.320460000000001</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.6</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.6795400000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.95750000000000002</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="4"/>
+        <v>18.042999999999999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.8</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.956999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.3</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="4"/>
+        <v>21.420549999999999</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.4205500000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0167999999999999</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="4"/>
+        <v>13.5588</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.4412000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.92059999999999997</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="4"/>
+        <v>18.469519999999999</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.9</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.5304800000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.94220000000000004</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.7</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="4"/>
+        <v>21.96594</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.9659399999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.9244</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="4"/>
+        <v>14.80688</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.1931199999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="4"/>
+        <v>14.283659999999999</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.4</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.7163400000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0351999999999999</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="4"/>
+        <v>22.4224</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.4223999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.95840000000000003</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.9</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="4"/>
+        <v>15.65456</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.3454399999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.94510000000000005</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="4"/>
+        <v>18.883940000000003</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.7</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1160599999999992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0483</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.854019999999998</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.14597999999999978</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0670999999999999</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.9</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="4"/>
+        <v>23.76559</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="2"/>
+        <v>-3.7655899999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0624</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.9</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="4"/>
+        <v>20.517760000000003</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.4</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.51776000000000089</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0293000000000001</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.3</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="4"/>
+        <v>22.66039</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.6603900000000014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0176000000000001</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="4"/>
+        <v>13.45984</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.3</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.5401600000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0115000000000001</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.4</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="4"/>
+        <v>21.531100000000002</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.5311000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="4"/>
+        <v>13.7324</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.2675999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.4</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="4"/>
+        <v>22.331800000000001</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.3318000000000012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0185999999999999</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.880420000000001</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.11958000000000091</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0136000000000001</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="4"/>
+        <v>18.91968</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.6</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0803199999999986</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="4"/>
+        <v>15.852</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.4</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.1480000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0342</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.9</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.20438</v>
+      </c>
+      <c r="E27">
         <f t="shared" ca="1" si="1"/>
         <v>12.8</v>
       </c>
-      <c r="D4">
+      <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>22.773119999999999</v>
-      </c>
-      <c r="E4">
+        <v>0.79561999999999955</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <f t="shared" ca="1" si="3"/>
+        <v>1.0683</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="4"/>
+        <v>13.52539</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.4746100000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0167999999999999</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="4"/>
+        <v>13.66048</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.3395200000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0563</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="4"/>
+        <v>13.27453</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="1"/>
+        <v>11.6</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.7254699999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="4"/>
+        <v>16.619799999999998</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.3802000000000012</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.6</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="4"/>
+        <v>18.865600000000001</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1344000000000012</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.92079999999999995</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="4"/>
+        <v>14.05152</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.94848</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.002</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.819600000000001</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.18039999999999878</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0602</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="4"/>
+        <v>13.39264</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.8</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.6073599999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0644</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.366720000000001</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.63327999999999918</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="4"/>
+        <v>21.587499999999999</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.7</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.5875000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.96860000000000002</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="4"/>
+        <v>13.09952</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="1"/>
         <v>6.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A5">
+      <c r="F38">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.9004799999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.95269999999999999</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.8</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="4"/>
+        <v>15.525659999999998</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.7</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.4743400000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0572999999999999</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.515699999999999</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.3</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.48430000000000106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0284</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.3</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="4"/>
+        <v>21.620919999999998</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.6209199999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.6</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="4"/>
+        <v>18.608599999999999</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="F42">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3914000000000009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0601</v>
+      </c>
+      <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9929</v>
-      </c>
-      <c r="C5">
+        <v>1.7</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="4"/>
+        <v>11.80217</v>
+      </c>
+      <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8</v>
-      </c>
-      <c r="D5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F43">
         <f t="shared" ca="1" si="2"/>
-        <v>15.75882</v>
-      </c>
-      <c r="E5">
+        <v>8.1978299999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
         <f t="shared" ca="1" si="3"/>
+        <v>1.024</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.8</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="4"/>
+        <v>17.987200000000001</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.4</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.0128000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0014000000000001</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="4"/>
+        <v>11.802519999999999</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.8</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.1974800000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="4"/>
+        <v>12.27079</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.7292100000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0348999999999999</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="4"/>
+        <v>14.96752</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.0324800000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0785</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="4"/>
+        <v>11.9413</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.1</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.0587</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0761000000000001</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="4"/>
+        <v>12.905470000000001</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.0945299999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.94650000000000001</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="4"/>
+        <v>12.0823</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.9177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0222</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="4"/>
+        <v>15.519880000000001</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.2</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.4801199999999994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0697000000000001</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.6</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="4"/>
+        <v>22.408520000000003</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.6</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.4085200000000011</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0306</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.6</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.89376</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.10624000000000144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.7</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="4"/>
+        <v>15.620200000000001</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.3797999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.94940000000000002</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="4"/>
+        <v>18.069900000000001</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="1"/>
+        <v>11.1</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.9300999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0571999999999999</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.514800000000001</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="1"/>
+        <v>11.4</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.48520000000000074</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.92430000000000001</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="4"/>
+        <v>12.12589</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.7</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.8741099999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
+      <c r="D58">
+        <f t="shared" ca="1" si="4"/>
+        <v>15.997</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.0030000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.92910000000000004</v>
+      </c>
+      <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0579000000000001</v>
-      </c>
-      <c r="C6">
+        <v>1.3</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="4"/>
+        <v>11.20783</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.6</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.7921700000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.898199999999999</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.4</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.10180000000000078</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0122</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="4"/>
+        <v>11.92318</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.9</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.0768199999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.6</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="4"/>
+        <v>20.776400000000002</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="1"/>
+        <v>11.7</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.77640000000000065</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.95350000000000001</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.9</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="4"/>
+        <v>20.393149999999999</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.8</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.39315000000000033</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0324</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="4"/>
+        <v>18.981879999999997</v>
+      </c>
+      <c r="E64">
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="F64">
         <f t="shared" ca="1" si="2"/>
-        <v>15.2895</v>
-      </c>
-      <c r="E6">
+        <v>1.0181200000000015</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
         <f t="shared" ca="1" si="3"/>
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
+        <v>0.96509999999999996</v>
+      </c>
+      <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94550000000000001</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.891</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0688</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="2"/>
-        <v>13.7408</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0407</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.8</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ca="1" si="2"/>
-        <v>17.07676</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="3"/>
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0472999999999999</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="2"/>
-        <v>23.614899999999999</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9365</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.2</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="2"/>
-        <v>20.488799999999998</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0365</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="2"/>
-        <v>15.078849999999999</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.95989999999999998</v>
-      </c>
-      <c r="C13">
+        <v>3.4</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="4"/>
+        <v>13.28134</v>
+      </c>
+      <c r="E65">
         <f t="shared" ca="1" si="1"/>
         <v>5.2</v>
       </c>
-      <c r="D13">
+      <c r="F65">
         <f t="shared" ca="1" si="2"/>
-        <v>14.991479999999999</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0744</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.9</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="2"/>
-        <v>19.562159999999999</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="3"/>
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.96330000000000005</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ca="1" si="2"/>
-        <v>14.334849999999999</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.98319999999999996</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.7</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="2"/>
-        <v>14.621040000000001</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.99329999999999996</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.7</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="2"/>
-        <v>21.621609999999997</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.95520000000000005</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.9552</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.92359999999999998</v>
-      </c>
-      <c r="C19">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ca="1" si="2"/>
-        <v>22.006799999999998</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="3"/>
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.98080000000000001</v>
-      </c>
-      <c r="C20">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ca="1" si="2"/>
-        <v>18.532959999999999</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ca="1" si="3"/>
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.96689999999999998</v>
-      </c>
-      <c r="C21">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.4</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ca="1" si="2"/>
-        <v>18.121960000000001</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="3"/>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0279</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.6</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ca="1" si="2"/>
-        <v>18.839939999999999</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0363</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ca="1" si="2"/>
-        <v>12.59075</v>
-      </c>
-      <c r="E23">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.96689999999999998</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.4</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ca="1" si="2"/>
-        <v>12.32056</v>
-      </c>
-      <c r="E24">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.99970000000000003</v>
-      </c>
-      <c r="C25">
-        <f t="shared" ca="1" si="1"/>
-        <v>12.1</v>
-      </c>
-      <c r="D25">
-        <f t="shared" ca="1" si="2"/>
-        <v>22.09637</v>
-      </c>
-      <c r="E25">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.95220000000000005</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.4</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.333080000000001</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0061</v>
-      </c>
-      <c r="C27">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.5</v>
-      </c>
-      <c r="D27">
-        <f t="shared" ca="1" si="2"/>
-        <v>19.557949999999998</v>
-      </c>
-      <c r="E27">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0243</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.7</v>
-      </c>
-      <c r="D28">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.74131</v>
-      </c>
-      <c r="E28">
-        <f t="shared" ca="1" si="3"/>
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.94540000000000002</v>
-      </c>
-      <c r="C29">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.6</v>
-      </c>
-      <c r="D29">
-        <f t="shared" ca="1" si="2"/>
-        <v>17.185040000000001</v>
-      </c>
-      <c r="E29">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0032000000000001</v>
-      </c>
-      <c r="C30">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.4</v>
-      </c>
-      <c r="D30">
-        <f t="shared" ca="1" si="2"/>
-        <v>17.423680000000001</v>
-      </c>
-      <c r="E30">
-        <f t="shared" ca="1" si="3"/>
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.94110000000000005</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.3</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ca="1" si="2"/>
-        <v>15.928930000000001</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ca="1" si="3"/>
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0354000000000001</v>
-      </c>
-      <c r="C32">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.4</v>
-      </c>
-      <c r="D32">
-        <f t="shared" ca="1" si="2"/>
-        <v>16.626560000000001</v>
-      </c>
-      <c r="E32">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.98160000000000003</v>
-      </c>
-      <c r="C33">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D33">
-        <f t="shared" ca="1" si="2"/>
-        <v>22.7608</v>
-      </c>
-      <c r="E33">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9214</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.9</v>
-      </c>
-      <c r="D34">
-        <f t="shared" ca="1" si="2"/>
-        <v>13.59346</v>
-      </c>
-      <c r="E34">
-        <f t="shared" ca="1" si="3"/>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.016</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.6</v>
-      </c>
-      <c r="D35">
-        <f t="shared" ca="1" si="2"/>
-        <v>13.6576</v>
-      </c>
-      <c r="E35">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.95779999999999998</v>
-      </c>
-      <c r="C36">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.5</v>
-      </c>
-      <c r="D36">
-        <f t="shared" ca="1" si="2"/>
-        <v>18.141300000000001</v>
-      </c>
-      <c r="E36">
-        <f t="shared" ca="1" si="3"/>
-        <v>11.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0771999999999999</v>
-      </c>
-      <c r="C37">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.3</v>
-      </c>
-      <c r="D37">
-        <f t="shared" ca="1" si="2"/>
-        <v>17.86356</v>
-      </c>
-      <c r="E37">
-        <f t="shared" ca="1" si="3"/>
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0217000000000001</v>
-      </c>
-      <c r="C38">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.4</v>
-      </c>
-      <c r="D38">
-        <f t="shared" ca="1" si="2"/>
-        <v>18.582280000000001</v>
-      </c>
-      <c r="E38">
-        <f t="shared" ca="1" si="3"/>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9496</v>
-      </c>
-      <c r="C39">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.4</v>
-      </c>
-      <c r="D39">
-        <f t="shared" ca="1" si="2"/>
-        <v>18.92624</v>
-      </c>
-      <c r="E39">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9698</v>
-      </c>
-      <c r="C40">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D40">
-        <f t="shared" ca="1" si="2"/>
-        <v>14.461079999999999</v>
-      </c>
-      <c r="E40">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="C41">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.4</v>
-      </c>
-      <c r="D41">
-        <f t="shared" ca="1" si="2"/>
-        <v>15.930240000000001</v>
-      </c>
-      <c r="E41">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.998</v>
-      </c>
-      <c r="C42">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.2</v>
-      </c>
-      <c r="D42">
-        <f t="shared" ca="1" si="2"/>
-        <v>16.1876</v>
-      </c>
-      <c r="E42">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.92789999999999995</v>
-      </c>
-      <c r="C43">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.9</v>
-      </c>
-      <c r="D43">
-        <f t="shared" ca="1" si="2"/>
-        <v>13.61881</v>
-      </c>
-      <c r="E43">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.94330000000000003</v>
-      </c>
-      <c r="C44">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.9</v>
-      </c>
-      <c r="D44">
-        <f t="shared" ca="1" si="2"/>
-        <v>13.67887</v>
-      </c>
-      <c r="E44">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0443</v>
-      </c>
-      <c r="C45">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.4</v>
-      </c>
-      <c r="D45">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.462019999999999</v>
-      </c>
-      <c r="E45">
-        <f t="shared" ca="1" si="3"/>
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0419</v>
-      </c>
-      <c r="C46">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D46">
-        <f t="shared" ca="1" si="2"/>
-        <v>14.271789999999999</v>
-      </c>
-      <c r="E46">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.97550000000000003</v>
-      </c>
-      <c r="C47">
-        <f t="shared" ca="1" si="1"/>
-        <v>12.7</v>
-      </c>
-      <c r="D47">
-        <f t="shared" ca="1" si="2"/>
-        <v>22.388849999999998</v>
-      </c>
-      <c r="E47">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0215000000000001</v>
-      </c>
-      <c r="C48">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="D48">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.532249999999999</v>
-      </c>
-      <c r="E48">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0514000000000001</v>
-      </c>
-      <c r="C49">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D49">
-        <f t="shared" ca="1" si="2"/>
-        <v>21.5654</v>
-      </c>
-      <c r="E49">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.92179999999999995</v>
-      </c>
-      <c r="C50">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="D50">
-        <f t="shared" ca="1" si="2"/>
-        <v>16.913499999999999</v>
-      </c>
-      <c r="E50">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.92310000000000003</v>
-      </c>
-      <c r="C51">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.9231</v>
-      </c>
-      <c r="E51">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.93969999999999998</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.7</v>
-      </c>
-      <c r="D52">
-        <f t="shared" ca="1" si="2"/>
-        <v>16.29599</v>
-      </c>
-      <c r="E52">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.95640000000000003</v>
-      </c>
-      <c r="C53">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D53">
-        <f t="shared" ca="1" si="2"/>
-        <v>13.8256</v>
-      </c>
-      <c r="E53">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0570999999999999</v>
-      </c>
-      <c r="C54">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.3</v>
-      </c>
-      <c r="D54">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.374230000000001</v>
-      </c>
-      <c r="E54">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.99570000000000003</v>
-      </c>
-      <c r="C55">
-        <f t="shared" ca="1" si="1"/>
-        <v>12.6</v>
-      </c>
-      <c r="D55">
-        <f t="shared" ca="1" si="2"/>
-        <v>22.545819999999999</v>
-      </c>
-      <c r="E55">
-        <f t="shared" ca="1" si="3"/>
-        <v>11.3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.93879999999999997</v>
-      </c>
-      <c r="C56">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.2</v>
-      </c>
-      <c r="D56">
-        <f t="shared" ca="1" si="2"/>
-        <v>20.514559999999999</v>
-      </c>
-      <c r="E56">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.99360000000000004</v>
-      </c>
-      <c r="C57">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="D57">
-        <f t="shared" ca="1" si="2"/>
-        <v>14.4712</v>
-      </c>
-      <c r="E57">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.92949999999999999</v>
-      </c>
-      <c r="C58">
-        <f t="shared" ca="1" si="1"/>
-        <v>12.2</v>
-      </c>
-      <c r="D58">
-        <f t="shared" ca="1" si="2"/>
-        <v>21.3399</v>
-      </c>
-      <c r="E58">
-        <f t="shared" ca="1" si="3"/>
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9284</v>
-      </c>
-      <c r="C59">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D59">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.8568</v>
-      </c>
-      <c r="E59">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9657</v>
-      </c>
-      <c r="C60">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.9657</v>
-      </c>
-      <c r="E60">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0623</v>
-      </c>
-      <c r="C61">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.6</v>
-      </c>
-      <c r="D61">
-        <f t="shared" ca="1" si="2"/>
-        <v>18.07348</v>
-      </c>
-      <c r="E61">
-        <f t="shared" ca="1" si="3"/>
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.97950000000000004</v>
-      </c>
-      <c r="C62">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="D62">
-        <f t="shared" ca="1" si="2"/>
-        <v>18.619599999999998</v>
-      </c>
-      <c r="E62">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0454000000000001</v>
-      </c>
-      <c r="C63">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.8</v>
-      </c>
-      <c r="D63">
-        <f t="shared" ca="1" si="2"/>
-        <v>17.108720000000002</v>
-      </c>
-      <c r="E63">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.96240000000000003</v>
-      </c>
-      <c r="C64">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.6</v>
-      </c>
-      <c r="D64">
-        <f t="shared" ca="1" si="2"/>
-        <v>15.38944</v>
-      </c>
-      <c r="E64">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.93720000000000003</v>
-      </c>
-      <c r="C65">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="D65">
-        <f t="shared" ca="1" si="2"/>
-        <v>16.091799999999999</v>
-      </c>
-      <c r="E65">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.5">
+        <v>6.7186599999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0042</v>
+      </c>
+      <c r="C66">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94379999999999997</v>
-      </c>
-      <c r="C66">
+        <v>11.3</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="4"/>
+        <v>21.347459999999998</v>
+      </c>
+      <c r="E66">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7</v>
-      </c>
-      <c r="D66">
+        <v>1.6</v>
+      </c>
+      <c r="F66">
         <f t="shared" ca="1" si="2"/>
-        <v>12.548259999999999</v>
-      </c>
-      <c r="E66">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.5">
+        <v>-1.3474599999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B130" ca="1" si="4">1+(RANDBETWEEN(-800,800)/10000)</f>
-        <v>1.0273000000000001</v>
+        <f t="shared" ref="B67:B101" ca="1" si="5">1+(RANDBETWEEN(-800,800)/10000)</f>
+        <v>0.98699999999999999</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C101" ca="1" si="5">RANDBETWEEN(10,130)/10</f>
-        <v>11.6</v>
+        <f t="shared" ref="C67:C101" ca="1" si="6">RANDBETWEEN(10,130)/10</f>
+        <v>11.9</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D101" ca="1" si="6">10+(1*(B67*C67))</f>
-        <v>21.916679999999999</v>
+        <f t="shared" ref="D67:D101" ca="1" si="7">10+(1*(B67*C67))</f>
+        <v>21.7453</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E101" ca="1" si="7">RANDBETWEEN(10,130)/10</f>
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ref="E67:E101" ca="1" si="8">RANDBETWEEN(10,130)/10</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F101" ca="1" si="9">10+(-1*($B67*$C67))</f>
+        <v>-1.7453000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.0313000000000001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0288999999999999</v>
       </c>
       <c r="C68">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.8000000000000007</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
       </c>
       <c r="D68">
-        <f t="shared" ca="1" si="6"/>
-        <v>20.106740000000002</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>18.231200000000001</v>
       </c>
       <c r="E68">
-        <f t="shared" ca="1" si="7"/>
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.9</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.7688000000000006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.99890000000000001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0349999999999999</v>
       </c>
       <c r="C69">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="D69">
-        <f t="shared" ca="1" si="6"/>
-        <v>11.39846</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>11.035</v>
       </c>
       <c r="E69">
-        <f t="shared" ca="1" si="7"/>
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>6.8</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="9"/>
+        <v>8.9649999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.0531999999999999</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0456000000000001</v>
       </c>
       <c r="C70">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.8</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.8</v>
       </c>
       <c r="D70">
-        <f t="shared" ca="1" si="6"/>
-        <v>12.94896</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>13.973279999999999</v>
       </c>
       <c r="E70">
-        <f t="shared" ca="1" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>8.9</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.0267200000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.0034000000000001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.92169999999999996</v>
       </c>
       <c r="C71">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
       </c>
       <c r="D71">
-        <f t="shared" ca="1" si="6"/>
-        <v>13.010200000000001</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>17.3736</v>
       </c>
       <c r="E71">
-        <f t="shared" ca="1" si="7"/>
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>6.5</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.6264000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.93569999999999998</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.96</v>
       </c>
       <c r="C72">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D72">
-        <f t="shared" ca="1" si="6"/>
-        <v>16.549900000000001</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>11.056000000000001</v>
       </c>
       <c r="E72">
-        <f t="shared" ca="1" si="7"/>
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="9"/>
+        <v>8.9439999999999991</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.97889999999999999</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.93710000000000004</v>
       </c>
       <c r="C73">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4.7</v>
       </c>
       <c r="D73">
-        <f t="shared" ca="1" si="6"/>
-        <v>11.566240000000001</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>14.40437</v>
       </c>
       <c r="E73">
-        <f t="shared" ca="1" si="7"/>
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>9.4</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.5956299999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.0437000000000001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.94379999999999997</v>
       </c>
       <c r="C74">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.8</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>12.5</v>
       </c>
       <c r="D74">
-        <f t="shared" ca="1" si="6"/>
-        <v>12.922359999999999</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>21.797499999999999</v>
       </c>
       <c r="E74">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>10.8</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1.7974999999999994</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.0684</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.97389999999999999</v>
       </c>
       <c r="C75">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>12.6</v>
       </c>
       <c r="D75">
-        <f t="shared" ca="1" si="6"/>
-        <v>13.41888</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>22.271139999999999</v>
       </c>
       <c r="E75">
-        <f t="shared" ca="1" si="7"/>
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ca="1" si="9"/>
+        <v>-2.271139999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.0146999999999999</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0351999999999999</v>
       </c>
       <c r="C76">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.1</v>
       </c>
       <c r="D76">
-        <f t="shared" ca="1" si="6"/>
-        <v>13.24704</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>13.20912</v>
       </c>
       <c r="E76">
-        <f t="shared" ca="1" si="7"/>
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.7908799999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1.0281</v>
       </c>
       <c r="C77">
-        <f t="shared" ca="1" si="5"/>
-        <v>10.199999999999999</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>11.6</v>
       </c>
       <c r="D77">
-        <f t="shared" ca="1" si="6"/>
-        <v>20.486620000000002</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>21.92596</v>
       </c>
       <c r="E77">
-        <f t="shared" ca="1" si="7"/>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>11.2</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1.9259599999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.0555000000000001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.99690000000000001</v>
       </c>
       <c r="C78">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.8</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.3</v>
       </c>
       <c r="D78">
-        <f t="shared" ca="1" si="6"/>
-        <v>14.010899999999999</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>13.289770000000001</v>
       </c>
       <c r="E78">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.7102300000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.0363</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.99539999999999995</v>
       </c>
       <c r="C79">
-        <f t="shared" ca="1" si="5"/>
-        <v>12.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>12.3</v>
       </c>
       <c r="D79">
-        <f t="shared" ca="1" si="6"/>
-        <v>22.953749999999999</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>22.24342</v>
       </c>
       <c r="E79">
-        <f t="shared" ca="1" si="7"/>
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="9"/>
+        <v>-2.2434200000000004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.98670000000000002</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.97499999999999998</v>
       </c>
       <c r="C80">
-        <f t="shared" ca="1" si="5"/>
-        <v>10.8</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>10.6</v>
       </c>
       <c r="D80">
-        <f t="shared" ca="1" si="6"/>
-        <v>20.656359999999999</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>20.335000000000001</v>
       </c>
       <c r="E80">
-        <f t="shared" ca="1" si="7"/>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>6.1</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.33499999999999908</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.99009999999999998</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0342</v>
       </c>
       <c r="C81">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.9</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6.3</v>
       </c>
       <c r="D81">
-        <f t="shared" ca="1" si="6"/>
-        <v>17.82179</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>16.515460000000001</v>
       </c>
       <c r="E81">
-        <f t="shared" ca="1" si="7"/>
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>10.3</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="9"/>
+        <v>3.48454</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.96350000000000002</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.98350000000000004</v>
       </c>
       <c r="C82">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D82">
-        <f t="shared" ca="1" si="6"/>
-        <v>16.166399999999999</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>15.01585</v>
       </c>
       <c r="E82">
-        <f t="shared" ca="1" si="7"/>
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.6</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="9"/>
+        <v>4.9841500000000005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.92369999999999997</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0663</v>
       </c>
       <c r="C83">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.8</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>11.2</v>
       </c>
       <c r="D83">
-        <f t="shared" ca="1" si="6"/>
-        <v>14.433759999999999</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>21.94256</v>
       </c>
       <c r="E83">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>4.3</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1.9425600000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.95489999999999997</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.99029999999999996</v>
       </c>
       <c r="C84">
-        <f t="shared" ca="1" si="5"/>
-        <v>10.7</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>12.7</v>
       </c>
       <c r="D84">
-        <f t="shared" ca="1" si="6"/>
-        <v>20.21743</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>22.576809999999998</v>
       </c>
       <c r="E84">
-        <f t="shared" ca="1" si="7"/>
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>5.3</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="9"/>
+        <v>-2.5768099999999983</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.9385</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0784</v>
       </c>
       <c r="C85">
-        <f t="shared" ca="1" si="5"/>
-        <v>12.3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>7.2</v>
       </c>
       <c r="D85">
-        <f t="shared" ca="1" si="6"/>
-        <v>21.543550000000003</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>17.764479999999999</v>
       </c>
       <c r="E85">
-        <f t="shared" ca="1" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>9.5</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.2355199999999993</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.94059999999999999</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.94</v>
       </c>
       <c r="C86">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>12</v>
       </c>
       <c r="D86">
-        <f t="shared" ca="1" si="6"/>
-        <v>16.866379999999999</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>21.28</v>
       </c>
       <c r="E86">
-        <f t="shared" ca="1" si="7"/>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1.2799999999999994</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.02</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0649999999999999</v>
       </c>
       <c r="C87">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4.2</v>
       </c>
       <c r="D87">
-        <f t="shared" ca="1" si="6"/>
-        <v>13.468</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>14.472999999999999</v>
       </c>
       <c r="E87">
-        <f t="shared" ca="1" si="7"/>
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>4.3</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.5270000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.0609999999999999</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0589999999999999</v>
       </c>
       <c r="C88">
-        <f t="shared" ca="1" si="5"/>
-        <v>12.7</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>9.9</v>
       </c>
       <c r="D88">
-        <f t="shared" ca="1" si="6"/>
-        <v>23.474699999999999</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>20.484099999999998</v>
       </c>
       <c r="E88">
-        <f t="shared" ca="1" si="7"/>
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>7.8</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.48409999999999975</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.0746</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.97450000000000003</v>
       </c>
       <c r="C89">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.4</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="7"/>
+        <v>15.2623</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="8"/>
         <v>6.9</v>
       </c>
-      <c r="D89">
-        <f t="shared" ca="1" si="6"/>
-        <v>17.414740000000002</v>
-      </c>
-      <c r="E89">
-        <f t="shared" ca="1" si="7"/>
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F89">
+        <f t="shared" ca="1" si="9"/>
+        <v>4.7376999999999994</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.97309999999999997</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.94710000000000005</v>
       </c>
       <c r="C90">
-        <f t="shared" ca="1" si="5"/>
-        <v>12.6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D90">
-        <f t="shared" ca="1" si="6"/>
-        <v>22.261060000000001</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>12.178329999999999</v>
       </c>
       <c r="E90">
-        <f t="shared" ca="1" si="7"/>
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>11.7</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.8216700000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.0798000000000001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0019</v>
       </c>
       <c r="C91">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.5</v>
       </c>
       <c r="D91">
-        <f t="shared" ca="1" si="6"/>
-        <v>20.258099999999999</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>11.50285</v>
       </c>
       <c r="E91">
-        <f t="shared" ca="1" si="7"/>
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>11.2</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="9"/>
+        <v>8.4971499999999995</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.95220000000000005</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0293000000000001</v>
       </c>
       <c r="C92">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="D92">
-        <f t="shared" ca="1" si="6"/>
-        <v>11.904400000000001</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>12.0586</v>
       </c>
       <c r="E92">
-        <f t="shared" ca="1" si="7"/>
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.9413999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.97499999999999998</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.9788</v>
       </c>
       <c r="C93">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6.3</v>
       </c>
       <c r="D93">
-        <f t="shared" ca="1" si="6"/>
-        <v>11.56</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>16.166440000000001</v>
       </c>
       <c r="E93">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>8.4</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="9"/>
+        <v>3.8335600000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.93630000000000002</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0481</v>
       </c>
       <c r="C94">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4.8</v>
       </c>
       <c r="D94">
-        <f t="shared" ca="1" si="6"/>
-        <v>12.247119999999999</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>15.03088</v>
       </c>
       <c r="E94">
-        <f t="shared" ca="1" si="7"/>
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>7.7</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="9"/>
+        <v>4.9691200000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.0004</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0306</v>
       </c>
       <c r="C95">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.6999999999999993</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>9.1</v>
       </c>
       <c r="D95">
-        <f t="shared" ca="1" si="6"/>
-        <v>18.703479999999999</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>19.378459999999997</v>
       </c>
       <c r="E95">
-        <f t="shared" ca="1" si="7"/>
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>12.7</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.62154000000000131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.99439999999999995</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.99209999999999998</v>
       </c>
       <c r="C96">
-        <f t="shared" ca="1" si="5"/>
-        <v>12.2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D96">
-        <f t="shared" ca="1" si="6"/>
-        <v>22.131679999999999</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>11.09131</v>
       </c>
       <c r="E96">
-        <f t="shared" ca="1" si="7"/>
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>5.6</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="9"/>
+        <v>8.90869</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.98350000000000004</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.94059999999999999</v>
       </c>
       <c r="C97">
-        <f t="shared" ca="1" si="5"/>
-        <v>12.9</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D97">
-        <f t="shared" ca="1" si="6"/>
-        <v>22.687150000000003</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>18.277280000000001</v>
       </c>
       <c r="E97">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.7227199999999989</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.0115000000000001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.97230000000000005</v>
       </c>
       <c r="C98">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.8</v>
       </c>
       <c r="D98">
-        <f t="shared" ca="1" si="6"/>
-        <v>20.115000000000002</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>11.75014</v>
       </c>
       <c r="E98">
-        <f t="shared" ca="1" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>8.9</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ca="1" si="9"/>
+        <v>8.24986</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.98080000000000001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0439000000000001</v>
       </c>
       <c r="C99">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.3000000000000007</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="D99">
-        <f t="shared" ca="1" si="6"/>
-        <v>18.140640000000001</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>13.1317</v>
       </c>
       <c r="E99">
-        <f t="shared" ca="1" si="7"/>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.8682999999999996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.0670999999999999</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.95889999999999997</v>
       </c>
       <c r="C100">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
       </c>
       <c r="D100">
-        <f t="shared" ca="1" si="6"/>
-        <v>12.24091</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>19.588999999999999</v>
       </c>
       <c r="E100">
-        <f t="shared" ca="1" si="7"/>
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.5">
+        <f t="shared" ca="1" si="8"/>
+        <v>8.5</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.41099999999999959</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.94530000000000003</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.94609999999999994</v>
       </c>
       <c r="C101">
-        <f t="shared" ca="1" si="5"/>
-        <v>12.7</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4.5</v>
       </c>
       <c r="D101">
-        <f t="shared" ca="1" si="6"/>
-        <v>22.005310000000001</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>14.257449999999999</v>
       </c>
       <c r="E101">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.4</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>8.6</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.7425500000000005</v>
       </c>
     </row>
   </sheetData>
@@ -5605,7 +7494,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5617,7 +7506,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
